--- a/Прикладное/Лр3 Попков/Попков_Т893_ЛР3_Задание1.xlsx
+++ b/Прикладное/Лр3 Попков/Попков_Т893_ЛР3_Задание1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Значение в ячейке</t>
   </si>
@@ -30,15 +30,9 @@
     <t>Примечание</t>
   </si>
   <si>
-    <t>123 456 789,00</t>
-  </si>
-  <si>
     <t>стандарт</t>
   </si>
   <si>
-    <t>123 456 789</t>
-  </si>
-  <si>
     <t>Без дробной части</t>
   </si>
   <si>
@@ -75,24 +69,12 @@
     <t>значение температуры</t>
   </si>
   <si>
-    <t>100,3 кг</t>
-  </si>
-  <si>
     <t>наличие текста не влияет на вычисления</t>
   </si>
   <si>
     <t>папа</t>
   </si>
   <si>
-    <t>положительное</t>
-  </si>
-  <si>
-    <t>отрицательное</t>
-  </si>
-  <si>
-    <t>ноль</t>
-  </si>
-  <si>
     <t>выводится только тип числа в текстовой форме или слово текст</t>
   </si>
   <si>
@@ -115,15 +97,6 @@
   </si>
   <si>
     <t>Форматировать номера телефонов. Номера более 7 цифр отображаются с кодом региона,  от 5 до 7 цифр - без кода региона, менее 5 цифр - ошибочны</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
-  </si>
-  <si>
-    <t>kjhug</t>
-  </si>
-  <si>
-    <t>любой текст</t>
   </si>
   <si>
     <t xml:space="preserve">Положительные/отрицательные значения начинаются с текста «Приход»/ «Расход», затем заполнитель –точка и заданное число, ноль – отображение прочерка 
@@ -138,25 +111,31 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="18">
-    <numFmt numFmtId="164" formatCode=".00"/>
-    <numFmt numFmtId="167" formatCode="\(\п\л\ю\с\)#,##0.00;\(\м\и\н\у\с\)#,##0.00;0"/>
-    <numFmt numFmtId="170" formatCode="[Red]General"/>
-    <numFmt numFmtId="171" formatCode="[Green]General"/>
-    <numFmt numFmtId="172" formatCode=";;;"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00\р/;\ \-#,##0.00\р/;;[Red]\ General"/>
-    <numFmt numFmtId="175" formatCode="\+0&quot;°С&quot;;\ \-0&quot;°С&quot;;\ 0&quot;°С&quot;;\ @&quot; (нет данных)&quot;"/>
-    <numFmt numFmtId="177" formatCode="#,##0;\(#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00&quot; кг&quot;;\-#,##0.00&quot; кг&quot;;0&quot; кг&quot;"/>
-    <numFmt numFmtId="180" formatCode="&quot;Приход &quot;*.#,##0&quot;руб.&quot;;&quot;Расход&quot;*.#,##0&quot;руб.&quot;;&quot;-&quot;"/>
-    <numFmt numFmtId="181" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="182" formatCode="dd\/mm\/yyyy"/>
-    <numFmt numFmtId="183" formatCode="[$-419]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="184" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="185" formatCode="[$-FC23]d\ mmmm\ yyyy&quot; г.&quot;;@"/>
-    <numFmt numFmtId="186" formatCode="[&lt;10000]&quot;Неверный номер&quot;;[&gt;9999999]\ #\(000\)##0\-00\-00;##0\-00\-00"/>
-    <numFmt numFmtId="189" formatCode="[&gt;0]0&quot; руб.&quot;\ 0&quot;0 коп.&quot;;[&gt;1000]00&quot; руб. &quot;00&quot; коп.&quot;;\ &quot;Ошибка&quot;"/>
-    <numFmt numFmtId="191" formatCode="[&gt;0]0&quot; руб.&quot;\ 0&quot;0 коп.&quot;;[&gt;1000]00&quot; руб. &quot;00&quot; коп.&quot;;&quot;Ошибка&quot;"/>
+  <numFmts count="24">
+    <numFmt numFmtId="164" formatCode=";;;"/>
+    <numFmt numFmtId="165" formatCode="\+0&quot;°С&quot;;\ \-0&quot;°С&quot;;\ 0&quot;°С&quot;;\ @&quot; (нет данных)&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0;\(#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot; кг&quot;;\-#,##0.00&quot; кг&quot;;0&quot; кг&quot;"/>
+    <numFmt numFmtId="168" formatCode="&quot;Приход &quot;*.#,##0&quot;руб.&quot;;&quot;Расход&quot;*.#,##0&quot;руб.&quot;;&quot;-&quot;"/>
+    <numFmt numFmtId="169" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="170" formatCode="dd\/mm\/yyyy"/>
+    <numFmt numFmtId="171" formatCode="[$-419]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="173" formatCode="[$-FC23]d\ mmmm\ yyyy&quot; г.&quot;;@"/>
+    <numFmt numFmtId="174" formatCode="[&lt;10000]&quot;Неверный номер&quot;;[&gt;9999999]\ #\(000\)##0\-00\-00;##0\-00\-00"/>
+    <numFmt numFmtId="175" formatCode="[&gt;0]0&quot; руб.&quot;\ 0&quot;0 коп.&quot;;[&gt;1000]00&quot; руб. &quot;00&quot; коп.&quot;;\ &quot;Ошибка&quot;"/>
+    <numFmt numFmtId="176" formatCode="000,000,000"/>
+    <numFmt numFmtId="177" formatCode=".###"/>
+    <numFmt numFmtId="178" formatCode=".##"/>
+    <numFmt numFmtId="179" formatCode="#,###;[Red]\-#,###;0"/>
+    <numFmt numFmtId="180" formatCode="\+#,###;\-#,###;0"/>
+    <numFmt numFmtId="181" formatCode="&quot;(плюс)&quot;#,##0.00;&quot;(минус)&quot;#,##0.00;0"/>
+    <numFmt numFmtId="183" formatCode="[Yellow]#,###;[Blue]\-#,###;0"/>
+    <numFmt numFmtId="184" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;;;[Red]@"/>
+    <numFmt numFmtId="185" formatCode="###.##&quot; кг&quot;;\-###.##&quot; кг&quot;;0&quot; кг&quot;"/>
+    <numFmt numFmtId="186" formatCode="&quot;положительное&quot;;&quot;отрицательное&quot;;&quot;ноль&quot;;&quot;текст&quot;"/>
+    <numFmt numFmtId="187" formatCode="[&gt;0]0&quot; руб.&quot;\ 0&quot;0 коп.&quot;;[&gt;1000]00&quot; руб. &quot;00&quot; коп.&quot;;&quot;Ошибка&quot;;"/>
+    <numFmt numFmtId="189" formatCode="[Green]#,###;[Blue]\-#,###;0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -517,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -525,15 +504,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="12" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -546,167 +516,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="189" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="\+0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -984,15 +969,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1007,434 +992,434 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>123456789</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="27">
+        <v>123456789</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>123456789.12</v>
+      </c>
+      <c r="B3" s="27">
+        <v>123456789.09999999</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>123456789.12</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>12.4</v>
+      </c>
+      <c r="B5" s="30">
+        <v>12.4</v>
+      </c>
+      <c r="C5" s="50"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>-123</v>
+      </c>
+      <c r="B6" s="31">
+        <v>-123</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0.33</v>
-      </c>
-      <c r="C4" s="15" t="s">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>123</v>
+      </c>
+      <c r="B7" s="32">
+        <v>123</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>12.4</v>
-      </c>
-      <c r="B5" s="14">
-        <v>12.4</v>
-      </c>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>123</v>
+      </c>
+      <c r="B8" s="33">
+        <v>123</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>-123</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B9" s="33">
         <v>-123</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>123</v>
-      </c>
-      <c r="B7" s="3">
-        <v>123</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="C9" s="50"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>123</v>
-      </c>
-      <c r="B8" s="19">
-        <v>123</v>
-      </c>
-      <c r="C8" s="15" t="s">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>345</v>
+      </c>
+      <c r="B11" s="63">
+        <v>345</v>
+      </c>
+      <c r="C11" s="49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>-123</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B12" s="34">
         <v>-123</v>
       </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="50"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>345</v>
-      </c>
-      <c r="B11" s="20">
-        <v>345</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+    <row r="15" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>-9</v>
+      </c>
+      <c r="B16" s="10">
+        <v>-9</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>12</v>
+      </c>
+      <c r="B17" s="10">
+        <v>12</v>
+      </c>
+      <c r="C17" s="51"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>0</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="51"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="50"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>100.3</v>
+      </c>
+      <c r="B20" s="36">
+        <v>100.3</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>100</v>
+      </c>
+      <c r="B21" s="37">
+        <v>100</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>-50</v>
+      </c>
+      <c r="B22" s="37">
+        <v>-50</v>
+      </c>
+      <c r="C22" s="51"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>0</v>
+      </c>
+      <c r="B23" s="37">
+        <v>0</v>
+      </c>
+      <c r="C23" s="51"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="50"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="13">
+        <v>-1</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>456</v>
+      </c>
+      <c r="B28" s="24">
+        <v>456</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41">
+        <v>456</v>
+      </c>
+      <c r="B29" s="18">
+        <v>456</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42">
+        <v>1234</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1234</v>
+      </c>
+      <c r="C30" s="53"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42">
         <v>-123</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B31" s="40">
         <v>-123</v>
       </c>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>-9</v>
-      </c>
-      <c r="B16" s="24">
-        <v>-9</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>12</v>
-      </c>
-      <c r="B17" s="24">
-        <v>12</v>
-      </c>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43">
+        <v>678</v>
+      </c>
+      <c r="B32" s="19">
+        <v>678</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44">
+        <v>-678</v>
+      </c>
+      <c r="B33" s="19">
+        <v>-678</v>
+      </c>
+      <c r="C33" s="53"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43">
         <v>0</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B34" s="20">
         <v>0</v>
       </c>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>100.3</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>100</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>-50</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="C34" s="55"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56">
+        <v>42622</v>
+      </c>
+      <c r="B35" s="22">
+        <v>42622</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="57"/>
+      <c r="B36" s="21">
+        <v>42622</v>
+      </c>
+      <c r="C36" s="60"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
+      <c r="B37" s="17">
+        <v>42622</v>
+      </c>
+      <c r="C37" s="60"/>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="57"/>
+      <c r="B38" s="16">
+        <v>42622</v>
+      </c>
+      <c r="C38" s="60"/>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="57"/>
+      <c r="B39" s="15">
+        <v>42622</v>
+      </c>
+      <c r="C39" s="60"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="58"/>
+      <c r="B40" s="14">
+        <v>42622</v>
+      </c>
+      <c r="C40" s="61"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="45">
+        <v>55896</v>
+      </c>
+      <c r="B41" s="25">
+        <v>55896</v>
+      </c>
+      <c r="C41" s="62" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="B26" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="27">
-        <v>-1</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>456</v>
-      </c>
-      <c r="B28" s="54">
-        <v>456</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42">
-        <v>456</v>
-      </c>
-      <c r="B29" s="33">
-        <v>456</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44">
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="46">
+        <v>7335566</v>
+      </c>
+      <c r="B42" s="25">
+        <v>7335566</v>
+      </c>
+      <c r="C42" s="60"/>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="47">
+        <v>174567777</v>
+      </c>
+      <c r="B43" s="26">
+        <v>174567777</v>
+      </c>
+      <c r="C43" s="60"/>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="46">
+        <v>80297249519</v>
+      </c>
+      <c r="B44" s="26">
+        <v>80297249519</v>
+      </c>
+      <c r="C44" s="60"/>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="48">
         <v>1234</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B45" s="23">
         <v>1234</v>
       </c>
-      <c r="C30" s="50"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44">
-        <v>-123</v>
-      </c>
-      <c r="B31" s="36">
-        <v>-89</v>
-      </c>
-      <c r="C31" s="52"/>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46">
-        <v>678</v>
-      </c>
-      <c r="B32" s="34">
-        <v>678</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45">
-        <v>-678</v>
-      </c>
-      <c r="B33" s="34">
-        <v>-678</v>
-      </c>
-      <c r="C33" s="50"/>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46">
-        <v>0</v>
-      </c>
-      <c r="B34" s="35">
-        <v>0</v>
-      </c>
-      <c r="C34" s="51"/>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41">
-        <v>42622</v>
-      </c>
-      <c r="B35" s="38">
-        <v>42622</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="37">
-        <v>42622</v>
-      </c>
-      <c r="C36" s="50"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="32">
-        <v>42622</v>
-      </c>
-      <c r="C37" s="50"/>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="31">
-        <v>42622</v>
-      </c>
-      <c r="C38" s="50"/>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="30">
-        <v>42622</v>
-      </c>
-      <c r="C39" s="50"/>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="29">
-        <v>42622</v>
-      </c>
-      <c r="C40" s="51"/>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="47">
-        <v>55896</v>
-      </c>
-      <c r="B41" s="56">
-        <v>55896</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="48">
-        <v>7335566</v>
-      </c>
-      <c r="B42" s="56">
-        <v>7335566</v>
-      </c>
-      <c r="C42" s="50"/>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43">
-        <v>174567777</v>
-      </c>
-      <c r="B43" s="57">
-        <v>174567777</v>
-      </c>
-      <c r="C43" s="50"/>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="48">
-        <v>80297249519</v>
-      </c>
-      <c r="B44" s="57">
-        <v>80297249519</v>
-      </c>
-      <c r="C44" s="50"/>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="58">
-        <v>1234</v>
-      </c>
-      <c r="B45" s="39">
-        <v>1234</v>
-      </c>
-      <c r="C45" s="51"/>
+      <c r="C45" s="61"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46"/>
@@ -1443,27 +1428,17 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C41:C45"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C41:C45"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
